--- a/public/netsapiens_customers.xlsx
+++ b/public/netsapiens_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83D87DF5-7FC6-474C-A0A3-8E6611F32D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8C91C4-45C2-4A09-8784-2798BE2B930D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FB5577D8-F9E4-4815-830B-D40B779493A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
   <si>
     <t>Partner</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Agent Ryan Thomas</t>
+  </si>
+  <si>
+    <t>Last modified by</t>
+  </si>
+  <si>
+    <t>Created date &amp; time</t>
   </si>
 </sst>
 </file>
@@ -599,15 +605,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A005FE0C-A898-4C57-B2D7-D2682C5BBB93}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8">
+    <row r="1" spans="1:5" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +627,14 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30.6">
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30.6">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -630,7 +646,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="30.6">
+    <row r="3" spans="1:5" ht="30.6">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -642,7 +658,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="30.6">
+    <row r="4" spans="1:5" ht="30.6">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -654,7 +670,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -666,7 +682,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="20.399999999999999">
+    <row r="6" spans="1:5" ht="20.399999999999999">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -678,7 +694,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="30.6">
+    <row r="7" spans="1:5" ht="30.6">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,7 +706,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="30.6">
+    <row r="8" spans="1:5" ht="30.6">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -702,7 +718,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -714,7 +730,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="30.6">
+    <row r="10" spans="1:5" ht="30.6">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -726,7 +742,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="20.399999999999999">
+    <row r="11" spans="1:5" ht="20.399999999999999">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,7 +754,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="40.799999999999997">
+    <row r="12" spans="1:5" ht="40.799999999999997">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,7 +766,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="20.399999999999999">
+    <row r="13" spans="1:5" ht="20.399999999999999">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -762,7 +778,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,7 +790,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="20.399999999999999">
+    <row r="15" spans="1:5" ht="20.399999999999999">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -786,7 +802,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="20.399999999999999">
+    <row r="16" spans="1:5" ht="20.399999999999999">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,7 +814,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="30.6">
+    <row r="17" spans="1:5" ht="30.6">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -810,7 +826,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="20.399999999999999">
+    <row r="18" spans="1:5" ht="20.399999999999999">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -821,8 +837,9 @@
         <v>5</v>
       </c>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
@@ -834,7 +851,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,7 +863,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="30.6">
+    <row r="21" spans="1:5" ht="30.6">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
@@ -858,7 +875,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="30.6">
+    <row r="22" spans="1:5" ht="30.6">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -870,7 +887,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="30.6">
+    <row r="23" spans="1:5" ht="30.6">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -882,7 +899,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="30.6">
+    <row r="24" spans="1:5" ht="30.6">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -894,7 +911,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
@@ -906,7 +923,7 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="20.399999999999999">
+    <row r="26" spans="1:5" ht="20.399999999999999">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -918,7 +935,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="30.6">
+    <row r="27" spans="1:5" ht="30.6">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -930,7 +947,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="20.399999999999999">
+    <row r="28" spans="1:5" ht="20.399999999999999">
       <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
@@ -942,7 +959,7 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="30.6">
+    <row r="29" spans="1:5" ht="30.6">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
@@ -954,7 +971,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="30.6">
+    <row r="30" spans="1:5" ht="30.6">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -966,7 +983,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="30.6">
+    <row r="31" spans="1:5" ht="30.6">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -978,7 +995,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="30.6">
+    <row r="32" spans="1:5" ht="30.6">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>

--- a/public/netsapiens_customers.xlsx
+++ b/public/netsapiens_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8C91C4-45C2-4A09-8784-2798BE2B930D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7A3399-FBAA-48D3-AB70-56322D0CC2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FB5577D8-F9E4-4815-830B-D40B779493A7}"/>
   </bookViews>
@@ -198,7 +198,7 @@
     <t>Last modified by</t>
   </si>
   <si>
-    <t>Created date &amp; time</t>
+    <t>Last modified date &amp; time</t>
   </si>
 </sst>
 </file>

--- a/public/netsapiens_customers.xlsx
+++ b/public/netsapiens_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7A3399-FBAA-48D3-AB70-56322D0CC2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6477A3-2DC2-4736-8F97-0311470535CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FB5577D8-F9E4-4815-830B-D40B779493A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="75">
   <si>
     <t>Partner</t>
   </si>
@@ -199,13 +199,73 @@
   </si>
   <si>
     <t>Last modified date &amp; time</t>
+  </si>
+  <si>
+    <t>jareen</t>
+  </si>
+  <si>
+    <t>10/07/2024 10:32PM</t>
+  </si>
+  <si>
+    <t>anjani</t>
+  </si>
+  <si>
+    <t>15/03/2024 11:03PM</t>
+  </si>
+  <si>
+    <t>sindhuja</t>
+  </si>
+  <si>
+    <t>22/05/2024 9:32AM</t>
+  </si>
+  <si>
+    <t>manoj</t>
+  </si>
+  <si>
+    <t>17/05/2024 5:32PM</t>
+  </si>
+  <si>
+    <t>lohitha</t>
+  </si>
+  <si>
+    <t>27/06/2024 08:32AM</t>
+  </si>
+  <si>
+    <t>gopi</t>
+  </si>
+  <si>
+    <t>13/05/2024 07:15PM</t>
+  </si>
+  <si>
+    <t>phani</t>
+  </si>
+  <si>
+    <t>25/06/2024 09:45AM</t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>12/06/2024 10:35PM</t>
+  </si>
+  <si>
+    <t>nikhil</t>
+  </si>
+  <si>
+    <t>23/06/2024 8:22AM</t>
+  </si>
+  <si>
+    <t>tejaswini</t>
+  </si>
+  <si>
+    <t>17/06/2024 9:38PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,11 +286,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="FontAwesome"/>
     </font>
   </fonts>
   <fills count="5">
@@ -272,22 +327,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -608,23 +656,23 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -634,606 +682,615 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.6">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="30.6">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="30.6">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.399999999999999">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="30.6">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="30.6">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="30.6">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.399999999999999">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="40.799999999999997">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.399999999999999">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.399999999999999">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.399999999999999">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="30.6">
-      <c r="A17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.399999999999999">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="30.6">
-      <c r="A21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="30.6">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="30.6">
-      <c r="A23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="30.6">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.399999999999999">
-      <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="30.6">
-      <c r="A27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.399999999999999">
-      <c r="A28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="30.6">
-      <c r="A29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="30.6">
-      <c r="A30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="30.6">
-      <c r="A31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="30.6">
-      <c r="A32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3">
         <v>300008716</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" ht="20.399999999999999">
-      <c r="A35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3">
         <v>300008717</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" ht="20.399999999999999">
-      <c r="A37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="20.399999999999999">
-      <c r="A39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="30.6">
-      <c r="A40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="C39" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" ht="30.6">
-      <c r="A41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="C40" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="30.6">
-      <c r="A42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="30.6">
-      <c r="A44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="C43" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" ht="40.799999999999997">
-      <c r="A45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="30.6">
-      <c r="A46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="C45" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" ht="30.6">
-      <c r="A47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="40.799999999999997">
-      <c r="A48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="C47" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" ht="20.399999999999999">
-      <c r="A50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="C49" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" ht="20.399999999999999">
-      <c r="A51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="C50" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="1"/>
+      <c r="C51" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
